--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A7F1948-D07C-442E-9E81-AEC212D1CEF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D5F9B-0236-4266-945D-90407B7709F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -29,9 +29,278 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>E54N37</t>
+  </si>
+  <si>
+    <t>E59N36</t>
+  </si>
+  <si>
+    <t>E52N35</t>
+  </si>
+  <si>
+    <t>E52N38</t>
+  </si>
+  <si>
+    <t>E53N39</t>
+  </si>
+  <si>
+    <t>E52N37</t>
+  </si>
+  <si>
+    <t>E54N39</t>
+  </si>
+  <si>
+    <t>E51N39</t>
+  </si>
+  <si>
+    <t>E53N38</t>
+  </si>
+  <si>
+    <t>E51N37</t>
+  </si>
+  <si>
+    <t>E59N38</t>
+  </si>
+  <si>
+    <t>E57N34</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>LHO2</t>
+  </si>
+  <si>
+    <t>LH2O</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>repair, build</t>
+  </si>
+  <si>
+    <t>nuke</t>
+  </si>
+  <si>
+    <t>GH2O</t>
+  </si>
+  <si>
+    <t>KHO2</t>
+  </si>
+  <si>
+    <t>r attak</t>
+  </si>
+  <si>
+    <t>UH2O</t>
+  </si>
+  <si>
+    <t>m attak</t>
+  </si>
+  <si>
+    <t>GHO2</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>upgrade</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>E51N33</t>
+  </si>
+  <si>
+    <t>E51</t>
+  </si>
+  <si>
+    <t>E52</t>
+  </si>
+  <si>
+    <t>E53</t>
+  </si>
+  <si>
+    <t>E54</t>
+  </si>
+  <si>
+    <t>E55</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>E57</t>
+  </si>
+  <si>
+    <t>E58</t>
+  </si>
+  <si>
+    <t>E59</t>
+  </si>
+  <si>
+    <t>N39</t>
+  </si>
+  <si>
+    <t>N38</t>
+  </si>
+  <si>
+    <t>N37</t>
+  </si>
+  <si>
+    <t>N36</t>
+  </si>
+  <si>
+    <t>N35</t>
+  </si>
+  <si>
+    <t>N34</t>
+  </si>
+  <si>
+    <t>N33</t>
+  </si>
+  <si>
+    <t>N32</t>
+  </si>
+  <si>
+    <t>N31</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>claimed</t>
+  </si>
+  <si>
+    <t>harvested</t>
+  </si>
+  <si>
+    <t>plane claim</t>
+  </si>
+  <si>
+    <t>E52N36</t>
+  </si>
+  <si>
+    <t>E56N31</t>
+  </si>
+  <si>
+    <t>palne harvest</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>h0</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>E57N35</t>
+  </si>
+  <si>
+    <t>E57N37</t>
+  </si>
+  <si>
+    <t>E52N33</t>
+  </si>
+  <si>
+    <t>E51N35</t>
+  </si>
+  <si>
+    <t>E58N39</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>E58N37</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>wait M16</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>E57N39</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>E57N32</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +309,79 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -57,18 +389,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,12 +788,1477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
-  <dimension ref="A1"/>
+  <dimension ref="D3:AZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="2.7109375" customWidth="1"/>
+    <col min="16" max="22" width="2.7109375" customWidth="1"/>
+    <col min="26" max="52" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="9"/>
+    </row>
+    <row r="5" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI5" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX6" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC9" s="12">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR10" s="12">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+    </row>
+    <row r="11" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR11" s="13">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+    </row>
+    <row r="12" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="Y12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+    </row>
+    <row r="13" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="Y13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+    </row>
+    <row r="14" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="4:52" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <v>17</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" t="s">
+        <v>81</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" t="s">
+        <v>81</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <v>21</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>22</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f>SUM(G5:G28)</f>
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:M29" si="0">SUM(H5:H28)</f>
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="1">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:36" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <f>G31-G29</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:M32" si="1">H31-H29</f>
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D5F9B-0236-4266-945D-90407B7709F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDA2AE-C64F-4BF8-93D8-F10EDC67C2FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
+    <sheet name="lab" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
   <si>
     <t>O</t>
   </si>
@@ -294,6 +295,24 @@
   </si>
   <si>
     <t>E57N32</t>
+  </si>
+  <si>
+    <t>lvl</t>
+  </si>
+  <si>
+    <t>last for upgraids</t>
+  </si>
+  <si>
+    <t>2. перебором относительно minX, minY определяем номер labs</t>
+  </si>
+  <si>
+    <t>example lab2 = minX+2,minY</t>
+  </si>
+  <si>
+    <t>Aloritm to find a number of labs</t>
+  </si>
+  <si>
+    <t>1. Find minX, minY all labs</t>
   </si>
 </sst>
 </file>
@@ -325,7 +344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +396,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -455,6 +480,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,11 +494,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -790,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,51 +879,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="7" t="s">
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="7" t="s">
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="7" t="s">
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="7" t="s">
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="7" t="s">
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="7" t="s">
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="7" t="s">
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="7" t="s">
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="9"/>
+      <c r="AY4" s="13"/>
+      <c r="AZ4" s="14"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5">
@@ -940,77 +968,77 @@
       <c r="Y5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="12">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="12" t="s">
+      <c r="Z5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AB5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AC5" s="11">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="11" t="s">
+      <c r="AC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="12">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AF5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AI5" s="12">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AI5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="13" t="s">
+      <c r="AO5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="10" t="s">
+      <c r="AR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="10" t="s">
+      <c r="AT5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AU5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="13" t="s">
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1055,77 +1083,77 @@
       <c r="Y6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="11" t="s">
+      <c r="Z6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="11" t="s">
+      <c r="AB6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AC6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AC6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="12" t="s">
+      <c r="AF6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="11">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
       <c r="AN6" s="5"/>
-      <c r="AO6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="13" t="s">
+      <c r="AO6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="13" t="s">
+      <c r="AR6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AT6" s="13" t="s">
+      <c r="AT6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AU6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="13" t="s">
+      <c r="AU6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AW6" s="13" t="s">
+      <c r="AW6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AX6" s="12">
-        <v>2</v>
-      </c>
-      <c r="AY6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="12" t="s">
+      <c r="AX6" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1170,40 +1198,40 @@
       <c r="Y7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="12">
-        <v>2</v>
-      </c>
-      <c r="AA7" s="12" t="s">
+      <c r="Z7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="12" t="s">
+      <c r="AB7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AC7" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AC7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AE7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AF7" s="11">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="11" t="s">
+      <c r="AF7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AH7" s="11" t="s">
+      <c r="AH7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI7" s="12">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AI7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AK7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="AL7" s="5"/>
@@ -1212,31 +1240,31 @@
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
-      <c r="AR7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="10" t="s">
+      <c r="AR7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AT7" s="10" t="s">
+      <c r="AT7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AU7" s="10">
-        <v>2</v>
-      </c>
-      <c r="AV7" s="10" t="s">
+      <c r="AU7" s="7">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AW7" s="10" t="s">
+      <c r="AW7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AX7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="13" t="s">
+      <c r="AX7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AZ7" s="13" t="s">
+      <c r="AZ7" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1282,79 +1310,79 @@
       <c r="Y8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="13" t="s">
+      <c r="Z8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="13" t="s">
+      <c r="AB8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AC8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="10" t="s">
+      <c r="AC8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AE8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AF8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="13" t="s">
+      <c r="AF8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="13" t="s">
+      <c r="AH8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AI8" s="13">
+      <c r="AI8" s="10">
         <v>3</v>
       </c>
-      <c r="AJ8" s="13" t="s">
+      <c r="AJ8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AK8" s="13" t="s">
+      <c r="AK8" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
-      <c r="AO8" s="13">
+      <c r="AO8" s="10">
         <v>3</v>
       </c>
-      <c r="AP8" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="13" t="s">
+      <c r="AP8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="13" t="s">
+      <c r="AR8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AU8" s="11">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="11" t="s">
+      <c r="AU8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AW8" s="11" t="s">
+      <c r="AW8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AX8" s="12">
-        <v>2</v>
-      </c>
-      <c r="AY8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="12" t="s">
+      <c r="AX8" s="9">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1399,22 +1427,22 @@
       <c r="Y9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="10" t="s">
+      <c r="Z9" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AC9" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="12" t="s">
+      <c r="AC9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AE9" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AF9" s="5"/>
@@ -1426,40 +1454,40 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
-      <c r="AO9" s="13">
+      <c r="AO9" s="10">
         <v>3</v>
       </c>
-      <c r="AP9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="13" t="s">
+      <c r="AP9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="10" t="s">
+      <c r="AR9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AU9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW9" s="13" t="s">
+      <c r="AU9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AX9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="13" t="s">
+      <c r="AX9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AZ9" s="13" t="s">
+      <c r="AZ9" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1500,22 +1528,22 @@
       <c r="Y10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="13">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="13" t="s">
+      <c r="Z10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC10" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="13" t="s">
+      <c r="AC10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="13" t="s">
+      <c r="AE10" s="10" t="s">
         <v>63</v>
       </c>
       <c r="AF10" s="5"/>
@@ -1527,22 +1555,22 @@
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
-      <c r="AO10" s="13">
+      <c r="AO10" s="10">
         <v>3</v>
       </c>
-      <c r="AP10" s="13" t="s">
+      <c r="AP10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AQ10" s="13" t="s">
+      <c r="AQ10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR10" s="12">
-        <v>2</v>
-      </c>
-      <c r="AS10" s="12" t="s">
+      <c r="AR10" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AT10" s="12" t="s">
+      <c r="AT10" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AU10" s="5"/>
@@ -1594,20 +1622,20 @@
       <c r="Y11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="10">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="10" t="s">
+      <c r="Z11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="10" t="s">
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="10"/>
+      <c r="AE11" s="7"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
@@ -1617,22 +1645,22 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
-      <c r="AO11" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="13" t="s">
+      <c r="AO11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AQ11" s="13" t="s">
+      <c r="AQ11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR11" s="13">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="13" t="s">
+      <c r="AR11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AT11" s="13" t="s">
+      <c r="AT11" s="10" t="s">
         <v>75</v>
       </c>
       <c r="AU11" s="5"/>
@@ -1686,22 +1714,22 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AO12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="13" t="s">
+      <c r="AO12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AQ12" s="13" t="s">
+      <c r="AQ12" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AR12" s="10">
-        <v>2</v>
-      </c>
-      <c r="AS12" s="10" t="s">
+      <c r="AR12" s="7">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AT12" s="10" t="s">
+      <c r="AT12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="AU12" s="5"/>
@@ -1755,22 +1783,22 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="10" t="s">
+      <c r="AO13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AQ13" s="10" t="s">
+      <c r="AQ13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AR13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="13" t="s">
+      <c r="AR13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AT13" s="13" t="s">
+      <c r="AT13" s="10" t="s">
         <v>67</v>
       </c>
       <c r="AU13" s="5"/>
@@ -1877,10 +1905,10 @@
       <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="14" t="s">
+      <c r="N17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="11" t="s">
         <v>77</v>
       </c>
       <c r="P17" s="2"/>
@@ -1953,10 +1981,10 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="14" t="s">
+      <c r="N20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1976,10 +2004,10 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2005,7 +2033,7 @@
       <c r="O22" t="s">
         <v>86</v>
       </c>
-      <c r="AI22" s="12"/>
+      <c r="AI22" s="9"/>
       <c r="AJ22" t="s">
         <v>56</v>
       </c>
@@ -2032,7 +2060,7 @@
       <c r="O23" t="s">
         <v>79</v>
       </c>
-      <c r="AI23" s="11"/>
+      <c r="AI23" s="8"/>
       <c r="AJ23" t="s">
         <v>57</v>
       </c>
@@ -2059,7 +2087,7 @@
       <c r="O24" t="s">
         <v>82</v>
       </c>
-      <c r="AI24" s="10"/>
+      <c r="AI24" s="7"/>
       <c r="AJ24" t="s">
         <v>58</v>
       </c>
@@ -2086,7 +2114,7 @@
       <c r="O25" t="s">
         <v>84</v>
       </c>
-      <c r="AI25" s="13"/>
+      <c r="AI25" s="10"/>
       <c r="AJ25" t="s">
         <v>61</v>
       </c>
@@ -2261,4 +2289,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
+  <dimension ref="B6:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="18" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17">
+        <v>2</v>
+      </c>
+      <c r="K8" s="17">
+        <v>3</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17">
+        <v>9</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="17">
+        <v>4</v>
+      </c>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="17">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="17">
+        <v>5</v>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17">
+        <v>7</v>
+      </c>
+      <c r="I11" s="17">
+        <v>6</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFDA2AE-C64F-4BF8-93D8-F10EDC67C2FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D188EF-49E9-4D24-AFC9-42836427086B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -485,6 +485,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,9 +497,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,51 +879,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="12" t="s">
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="12" t="s">
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="12" t="s">
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="12" t="s">
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="14"/>
-      <c r="AO4" s="12" t="s">
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="12" t="s">
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="12" t="s">
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="12" t="s">
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="14"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="17"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5">
@@ -1537,13 +1537,13 @@
       <c r="AB10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="10" t="s">
+      <c r="AC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AE10" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AF10" s="5"/>
@@ -2295,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
   <dimension ref="B6:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -2340,12 +2340,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="O7" t="s">
         <v>93</v>
       </c>
@@ -2360,16 +2360,16 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17">
-        <v>2</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14">
+        <v>2</v>
+      </c>
+      <c r="K8" s="14">
         <v>3</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="12"/>
       <c r="O8" t="s">
         <v>90</v>
       </c>
@@ -2384,35 +2384,35 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17">
+      <c r="G9" s="12"/>
+      <c r="H9" s="14">
         <v>9</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="17">
-        <v>1</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="I9" s="12"/>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
         <v>4</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="17">
+      <c r="G10" s="12"/>
+      <c r="H10" s="14">
         <v>8</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="17">
+      <c r="J10" s="12"/>
+      <c r="K10" s="14">
         <v>5</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="12"/>
       <c r="O10" t="s">
         <v>91</v>
       </c>
@@ -2421,27 +2421,27 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17">
+      <c r="G11" s="12"/>
+      <c r="H11" s="14">
         <v>7</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="14">
         <v>6</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D188EF-49E9-4D24-AFC9-42836427086B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EC585-0595-406A-83F4-B9B05E5BC6F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="94">
   <si>
     <t>O</t>
   </si>
@@ -819,7 +819,7 @@
   <dimension ref="D3:AZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="N24" sqref="N24:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s">
-        <v>80</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>79</v>
       </c>
       <c r="AI23" s="8"/>
@@ -2081,11 +2081,11 @@
         <v>1</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" t="s">
-        <v>81</v>
-      </c>
-      <c r="O24" t="s">
-        <v>82</v>
+      <c r="N24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="AI24" s="7"/>
       <c r="AJ24" t="s">

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EC585-0595-406A-83F4-B9B05E5BC6F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7DA7F7-781E-414C-87DD-B67E71C4CA3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>O</t>
   </si>
@@ -273,13 +273,7 @@
     <t>M2</t>
   </si>
   <si>
-    <t>wait M16</t>
-  </si>
-  <si>
     <t>wait</t>
-  </si>
-  <si>
-    <t>M16</t>
   </si>
   <si>
     <t>M1</t>
@@ -819,7 +813,7 @@
   <dimension ref="D3:AZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24:O24"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,13 +1026,13 @@
         <v>2</v>
       </c>
       <c r="AW5" s="7"/>
-      <c r="AX5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
+      <c r="AX5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1258,13 +1252,13 @@
       <c r="AW7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AX7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="10" t="s">
+      <c r="AX7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AZ7" s="10" t="s">
+      <c r="AZ7" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1936,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="5:36" x14ac:dyDescent="0.25">
@@ -1959,10 +1953,10 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="5:36" x14ac:dyDescent="0.25">
@@ -1985,7 +1979,7 @@
         <v>78</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="5:36" x14ac:dyDescent="0.25">
@@ -2016,7 +2010,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -2028,10 +2022,10 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" t="s">
@@ -2109,10 +2103,10 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AI25" s="10"/>
       <c r="AJ25" t="s">
@@ -2136,10 +2130,10 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="5:36" x14ac:dyDescent="0.25">
@@ -2147,7 +2141,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2159,10 +2153,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="5:36" x14ac:dyDescent="0.25">
@@ -2306,7 +2300,7 @@
   <sheetData>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2327,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2347,7 +2341,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2371,7 +2365,7 @@
       </c>
       <c r="L8" s="12"/>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2414,7 +2408,7 @@
       </c>
       <c r="L10" s="12"/>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -2445,7 +2439,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7DA7F7-781E-414C-87DD-B67E71C4CA3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26B642-4056-412A-8853-9F3D6EDF3F10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
   <si>
     <t>O</t>
   </si>
@@ -307,6 +307,33 @@
   </si>
   <si>
     <t>1. Find minX, minY all labs</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
   </si>
 </sst>
 </file>
@@ -464,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -491,6 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -813,7 +841,7 @@
   <dimension ref="D3:AZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,8 +948,8 @@
       <c r="AZ4" s="17"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1037,8 +1065,8 @@
       </c>
     </row>
     <row r="6" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1152,8 +1180,8 @@
       </c>
     </row>
     <row r="7" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1263,8 +1291,8 @@
       </c>
     </row>
     <row r="8" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>94</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1381,8 +1409,8 @@
       </c>
     </row>
     <row r="9" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -1421,13 +1449,13 @@
       <c r="Y9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="7" t="s">
+      <c r="Z9" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AB9" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AC9" s="9">
@@ -1486,8 +1514,8 @@
       </c>
     </row>
     <row r="10" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -1575,8 +1603,8 @@
       <c r="AZ10" s="5"/>
     </row>
     <row r="11" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="2">
         <v>6</v>
@@ -1616,13 +1644,13 @@
       <c r="Y11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA11" s="7" t="s">
+      <c r="Z11" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="7">
         <v>1</v>
       </c>
@@ -1665,8 +1693,8 @@
       <c r="AZ11" s="5"/>
     </row>
     <row r="12" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="3">
         <v>7</v>
@@ -1734,8 +1762,8 @@
       <c r="AZ12" s="5"/>
     </row>
     <row r="13" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>99</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
@@ -1803,8 +1831,8 @@
       <c r="AZ13" s="5"/>
     </row>
     <row r="14" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
@@ -1830,8 +1858,8 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>82</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
@@ -1857,8 +1885,8 @@
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="3">
         <v>11</v>
@@ -1883,7 +1911,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <v>12</v>
       </c>
@@ -1913,7 +1941,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <v>13</v>
       </c>
@@ -1936,7 +1964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>14</v>
       </c>
@@ -1959,7 +1987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E20" s="3">
         <v>15</v>
       </c>
@@ -1982,7 +2010,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <v>16</v>
       </c>
@@ -2005,7 +2033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <v>17</v>
       </c>
@@ -2032,7 +2060,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
       <c r="E23" s="2">
         <v>18</v>
       </c>
@@ -2048,18 +2079,17 @@
         <v>1</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
       <c r="E24" s="3">
         <v>19</v>
       </c>
@@ -2075,18 +2105,14 @@
         <v>1</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E25" s="2">
         <v>20</v>
       </c>
@@ -2113,7 +2139,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E26" s="3">
         <v>21</v>
       </c>
@@ -2136,7 +2162,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <v>22</v>
       </c>
@@ -2159,7 +2185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E28" s="2" t="s">
         <v>55</v>
       </c>
@@ -2178,7 +2204,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:36" x14ac:dyDescent="0.25">
       <c r="G29" s="1">
         <f>SUM(G5:G28)</f>
         <v>7</v>
@@ -2208,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:36" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>34</v>
       </c>
@@ -2234,7 +2260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="5:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:36" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>35</v>
       </c>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26B642-4056-412A-8853-9F3D6EDF3F10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA2DCB-93A5-41AE-8103-F120A96B3372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
     <sheet name="lab" sheetId="2" r:id="rId2"/>
+    <sheet name="buttle group" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="125">
   <si>
     <t>O</t>
   </si>
@@ -213,9 +214,6 @@
     <t>E52N36</t>
   </si>
   <si>
-    <t>E56N31</t>
-  </si>
-  <si>
     <t>palne harvest</t>
   </si>
   <si>
@@ -267,15 +265,9 @@
     <t>M0</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -334,6 +326,87 @@
   </si>
   <si>
     <t>M9</t>
+  </si>
+  <si>
+    <t>r attack</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>maxAttack</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>bonus tough</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>Damager</t>
+  </si>
+  <si>
+    <t>r. attack</t>
+  </si>
+  <si>
+    <t>prioritet</t>
+  </si>
+  <si>
+    <t>mile</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>kill 1</t>
+  </si>
+  <si>
+    <t>dist\damag</t>
+  </si>
+  <si>
+    <t>Healer</t>
+  </si>
+  <si>
+    <t>heed heal</t>
+  </si>
+  <si>
+    <t>TOUGH*1,MOVE*6,ATTACK*5</t>
+  </si>
+  <si>
+    <t>m.attack</t>
+  </si>
+  <si>
+    <t>TOUGH*2,MOVE*6,RANGED_ATTACK*4</t>
+  </si>
+  <si>
+    <t>r.attack</t>
+  </si>
+  <si>
+    <t>healer</t>
+  </si>
+  <si>
+    <t>[TOUGH,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK]</t>
+  </si>
+  <si>
+    <t>[TOUGH,TOUGH,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,RANGED_ATTACK,RANGED_ATTACK,RANGED_ATTACK,RANGED_ATTACK]</t>
+  </si>
+  <si>
+    <t>TOUGH*3,MOVE*5,HEAL*2</t>
+  </si>
+  <si>
+    <t>[TOUGH,TOUGH,TOUGH,MOVE,MOVE,MOVE,MOVE,MOVE,HEAL,HEAL]</t>
+  </si>
+  <si>
+    <t>kill 2</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>snapshot</t>
   </si>
 </sst>
 </file>
@@ -365,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,12 +484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,10 +572,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,7 +585,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -841,7 +908,7 @@
   <dimension ref="D3:AZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +916,9 @@
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="2.7109375" customWidth="1"/>
     <col min="16" max="22" width="2.7109375" customWidth="1"/>
-    <col min="26" max="52" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" customWidth="1"/>
+    <col min="27" max="27" width="5" customWidth="1"/>
+    <col min="28" max="52" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:52" x14ac:dyDescent="0.25">
@@ -949,7 +1018,7 @@
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -997,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC5" s="8">
+        <v>63</v>
+      </c>
+      <c r="AC5" s="6">
         <v>1</v>
       </c>
       <c r="AD5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF5" s="9">
         <v>2</v>
@@ -1015,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI5" s="9">
         <v>2</v>
@@ -1024,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
@@ -1036,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR5" s="7">
         <v>1</v>
@@ -1045,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="AT5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AU5" s="7">
         <v>1</v>
@@ -1054,19 +1123,19 @@
         <v>2</v>
       </c>
       <c r="AW5" s="7"/>
-      <c r="AX5" s="8">
+      <c r="AX5" s="6">
         <v>1</v>
       </c>
       <c r="AY5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="AZ5" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1105,14 +1174,14 @@
       <c r="Y6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="6">
         <v>1</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC6" s="9">
         <v>2</v>
@@ -1121,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF6" s="9">
         <v>2</v>
@@ -1130,14 +1199,14 @@
         <v>0</v>
       </c>
       <c r="AH6" s="9"/>
-      <c r="AI6" s="8">
+      <c r="AI6" s="6">
         <v>1</v>
       </c>
       <c r="AJ6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="AK6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
@@ -1149,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR6" s="10">
         <v>1</v>
@@ -1158,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU6" s="10">
         <v>1</v>
@@ -1167,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX6" s="9">
         <v>2</v>
@@ -1176,12 +1245,12 @@
         <v>2</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1227,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC7" s="9">
         <v>2</v>
@@ -1236,16 +1305,16 @@
         <v>5</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF7" s="8">
+        <v>65</v>
+      </c>
+      <c r="AF7" s="6">
         <v>1</v>
       </c>
       <c r="AG7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AH7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI7" s="9">
         <v>2</v>
@@ -1254,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
@@ -1269,30 +1338,30 @@
         <v>0</v>
       </c>
       <c r="AT7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU7" s="7">
-        <v>2</v>
-      </c>
-      <c r="AV7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AW7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX7" s="8">
+      <c r="AW7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX7" s="6">
         <v>1</v>
       </c>
       <c r="AY7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AZ7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1339,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC8" s="7">
         <v>1</v>
@@ -1348,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF8" s="10">
         <v>1</v>
@@ -1357,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI8" s="10">
         <v>3</v>
@@ -1366,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="AK8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
@@ -1378,25 +1447,25 @@
         <v>1</v>
       </c>
       <c r="AQ8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AR8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU8" s="8">
+      <c r="AU8" s="6">
         <v>1</v>
       </c>
       <c r="AV8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="AW8" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX8" s="9">
         <v>2</v>
@@ -1405,12 +1474,12 @@
         <v>1</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -1456,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC9" s="9">
         <v>2</v>
@@ -1465,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -1483,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR9" s="7">
         <v>1</v>
@@ -1492,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="AT9" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AU9" s="10">
         <v>1</v>
@@ -1501,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="AW9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AX9" s="10">
         <v>1</v>
@@ -1510,12 +1579,12 @@
         <v>5</v>
       </c>
       <c r="AZ9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -1557,16 +1626,16 @@
         <v>1</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC10" s="8">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="6">
         <v>1</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="AE10" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
@@ -1584,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR10" s="9">
         <v>2</v>
@@ -1593,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AU10" s="5"/>
       <c r="AV10" s="5"/>
@@ -1604,7 +1673,7 @@
     </row>
     <row r="11" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2">
         <v>6</v>
@@ -1674,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR11" s="10">
         <v>2</v>
@@ -1683,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="5"/>
       <c r="AV11" s="5"/>
@@ -1694,7 +1763,7 @@
     </row>
     <row r="12" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3">
         <v>7</v>
@@ -1743,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="AQ12" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AR12" s="7">
         <v>2</v>
@@ -1752,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="AT12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
@@ -1763,7 +1832,7 @@
     </row>
     <row r="13" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
@@ -1805,14 +1874,14 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="7" t="s">
+      <c r="AO13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AQ13" s="7" t="s">
-        <v>65</v>
+      <c r="AQ13" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="AR13" s="10">
         <v>1</v>
@@ -1821,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="AT13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
@@ -1832,7 +1901,7 @@
     </row>
     <row r="14" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
@@ -1859,7 +1928,7 @@
     </row>
     <row r="15" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
@@ -1886,7 +1955,7 @@
     </row>
     <row r="16" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3">
         <v>11</v>
@@ -1912,27 +1981,26 @@
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
       <c r="E17" s="2">
         <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1942,248 +2010,191 @@
       <c r="V17" s="2"/>
     </row>
     <row r="18" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
       <c r="E18" s="3">
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>80</v>
-      </c>
-      <c r="O18" t="s">
-        <v>84</v>
-      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
     </row>
     <row r="19" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" t="s">
-        <v>84</v>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E20" s="3">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>81</v>
-      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
     </row>
     <row r="21" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E21" s="2">
-        <v>16</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="11" t="s">
-        <v>79</v>
-      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
     </row>
     <row r="22" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E22" s="3">
-        <v>17</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
+      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" t="s">
-        <v>84</v>
-      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="2">
-        <v>18</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="3">
-        <v>19</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E25" s="2">
-        <v>20</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>82</v>
-      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
       <c r="AI25" s="10"/>
       <c r="AJ25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E26" s="3">
-        <v>21</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" t="s">
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E27" s="2">
-        <v>22</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" t="s">
-        <v>82</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="4:36" x14ac:dyDescent="0.25">
       <c r="E28" s="2" t="s">
@@ -2210,28 +2221,28 @@
         <v>7</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:M29" si="0">SUM(H5:H28)</f>
+        <f>SUM(H5:H28)</f>
         <v>5</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(I5:I28)</f>
         <v>4</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(J5:J28)</f>
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(K5:K28)</f>
         <v>3</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUM(L5:L28)</f>
         <v>5</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(M5:M28)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:36" x14ac:dyDescent="0.25">
@@ -2269,28 +2280,28 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:M32" si="1">H31-H29</f>
+        <f t="shared" ref="H32:M32" si="0">H31-H29</f>
         <v>2</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2326,7 +2337,7 @@
   <sheetData>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2347,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2360,14 +2371,14 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2380,18 +2391,18 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14">
-        <v>2</v>
-      </c>
-      <c r="K8" s="14">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13">
         <v>3</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="11"/>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2404,71 +2415,384 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14">
+      <c r="G9" s="11"/>
+      <c r="H9" s="13">
         <v>9</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="14">
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
+      <c r="I9" s="11"/>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
         <v>4</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="14">
+      <c r="G10" s="11"/>
+      <c r="H10" s="13">
         <v>8</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="14">
+      <c r="J10" s="11"/>
+      <c r="K10" s="13">
         <v>5</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="11"/>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="14">
+      <c r="G11" s="11"/>
+      <c r="H11" s="13">
         <v>7</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>6</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D42C2D-809D-49DE-828C-EB53612AEB33}">
+  <dimension ref="F4:Z23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <f>L5*100</f>
+        <v>1000</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>30</v>
+      </c>
+      <c r="R5" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>30</v>
+      </c>
+      <c r="L6" s="11">
+        <v>10</v>
+      </c>
+      <c r="M6" s="11">
+        <f>(L6-J6)*100+J6*100*(1+K6/100)</f>
+        <v>1090</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2</v>
+      </c>
+      <c r="P6" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="O7" s="11">
+        <v>3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>SUM(H5:H7)</f>
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <f>SUM(I5:I7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <f>7*P5+I8*Q5</f>
+        <v>100</v>
+      </c>
+      <c r="S10" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>99</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <f>T11*Q5</f>
+        <v>150</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+      <c r="Z11">
+        <f>Y11*R5</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12">
+        <v>4</v>
+      </c>
+      <c r="U12">
+        <f>T12*P5</f>
+        <v>40</v>
+      </c>
+      <c r="V12">
+        <f>T12*P7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13">
+        <f>M5/U13</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="U13">
+        <f>SUM(U11:U12)</f>
+        <v>190</v>
+      </c>
+      <c r="V13">
+        <f>SUM(V11:V12)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14">
+        <f>M6/V13</f>
+        <v>272.5</v>
+      </c>
+      <c r="Q14">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="6:26" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>112</v>
+      </c>
+      <c r="W16">
+        <f>(M10-Z11)*Q13</f>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="18:25" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="18:25" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="18:25" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" t="s">
+        <v>113</v>
+      </c>
+      <c r="W21">
+        <v>710</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="18:25" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22">
+        <v>920</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="18:25" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" t="s">
+        <v>120</v>
+      </c>
+      <c r="W23">
+        <v>780</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA2DCB-93A5-41AE-8103-F120A96B3372}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7E6AA-00EE-4900-8DB5-F52C8B94B66C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="133">
   <si>
     <t>O</t>
   </si>
@@ -407,6 +407,30 @@
   </si>
   <si>
     <t>snapshot</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>creep</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M21</t>
   </si>
 </sst>
 </file>
@@ -576,6 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,7 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -905,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
-  <dimension ref="D3:AZ32"/>
+  <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,51 +994,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="15" t="s">
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="15" t="s">
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="15" t="s">
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="15" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="15" t="s">
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="15" t="s">
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="18"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -2052,36 +2076,62 @@
       <c r="M19" s="2"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="AI19" s="18"/>
+      <c r="AI19" s="15"/>
       <c r="AJ19" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="14"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>128</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
@@ -2092,7 +2142,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="O22" s="14"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" t="s">
@@ -2100,20 +2152,25 @@
       </c>
     </row>
     <row r="23" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="14"/>
+      <c r="D23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="O23" s="14"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" t="s">
@@ -2121,20 +2178,25 @@
       </c>
     </row>
     <row r="24" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
       <c r="I24" s="3"/>
-      <c r="J24" s="3">
-        <v>1</v>
-      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="O24" s="14"/>
       <c r="AI24" s="7"/>
       <c r="AJ24" t="s">
@@ -2142,20 +2204,25 @@
       </c>
     </row>
     <row r="25" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>131</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="O25" s="14"/>
       <c r="AI25" s="10"/>
       <c r="AJ25" t="s">
@@ -2163,144 +2230,134 @@
       </c>
     </row>
     <row r="26" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="E27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="G29" s="1">
-        <f>SUM(G5:G28)</f>
+      <c r="G28" s="1">
+        <f t="shared" ref="G28:L28" si="0">SUM(G5:G27)</f>
         <v>7</v>
       </c>
-      <c r="H29" s="1">
-        <f>SUM(H5:H28)</f>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I29" s="1">
-        <f>SUM(I5:I28)</f>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J29" s="1">
-        <f>SUM(J5:J28)</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <f>SUM(K5:K28)</f>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L29" s="1">
-        <f>SUM(L5:L28)</f>
+      <c r="L28" s="1">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M29" s="1">
-        <f>SUM(M5:M28)</f>
-        <v>1</v>
+      <c r="M28" s="1">
+        <f>SUM(M5:M27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="4:36" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="1">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1">
-        <v>3</v>
-      </c>
-      <c r="J31" s="1">
-        <v>3</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="1">
-        <v>3</v>
-      </c>
-      <c r="M31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="4:36" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
         <v>35</v>
       </c>
-      <c r="G32">
-        <f>G31-G29</f>
+      <c r="G31">
+        <f>G30-G28</f>
         <v>0</v>
       </c>
-      <c r="H32">
-        <f t="shared" ref="H32:M32" si="0">H31-H29</f>
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="0"/>
+      <c r="H31">
+        <f t="shared" ref="H31:M31" si="1">H30-H28</f>
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="0"/>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
+      <c r="L31">
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
+      <c r="M31">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7E6AA-00EE-4900-8DB5-F52C8B94B66C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1B94E-996E-473E-8F30-405C4457AC85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
     <sheet name="lab" sheetId="2" r:id="rId2"/>
     <sheet name="buttle group" sheetId="3" r:id="rId3"/>
+    <sheet name="balance upgrader" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
   <si>
     <t>O</t>
   </si>
@@ -431,6 +432,24 @@
   </si>
   <si>
     <t>M21</t>
+  </si>
+  <si>
+    <t>upgrage per 1500 tick</t>
+  </si>
+  <si>
+    <t>upgrader</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>carrier</t>
+  </si>
+  <si>
+    <t>[MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY,CARRY]</t>
+  </si>
+  <si>
+    <t>[MOVE,MOVE,MOVE,MOVE,MOVE,WORK,WORK,WORK,WORK,WORK,WORK,WORK,WORK,WORK,WORK,CARRY,CARRY,CARRY,CARRY]</t>
   </si>
 </sst>
 </file>
@@ -931,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
@@ -2852,4 +2871,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98482179-5758-4672-AADB-0AB0285AA3CF}">
+  <dimension ref="E4:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>G6*1.8</f>
+        <v>27000</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6">
+        <v>2050</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <f>15000/(1500/100)</f>
+        <v>1000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D1B94E-996E-473E-8F30-405C4457AC85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095390C-FCAA-4935-AB6B-CAD3E60AEE4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
   <si>
     <t>O</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>[MOVE,MOVE,MOVE,MOVE,MOVE,WORK,WORK,WORK,WORK,WORK,WORK,WORK,WORK,WORK,WORK,CARRY,CARRY,CARRY,CARRY]</t>
+  </si>
+  <si>
+    <t>ticks per hour</t>
   </si>
 </sst>
 </file>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AW22" sqref="AW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,13 +1275,13 @@
       <c r="AT6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AU6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="10" t="s">
+      <c r="AU6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AW6" s="10" t="s">
+      <c r="AW6" s="8" t="s">
         <v>74</v>
       </c>
       <c r="AX6" s="9">
@@ -1444,31 +1447,31 @@
       <c r="Y8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="10" t="s">
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AB8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AC8" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="7" t="s">
+      <c r="AC8" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="7" t="s">
+      <c r="AE8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AF8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AF8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="10" t="s">
+      <c r="AH8" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AI8" s="10">
@@ -1568,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC9" s="9">
         <v>2</v>
@@ -1662,14 +1665,14 @@
       <c r="Y10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>62</v>
+      <c r="Z10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="AC10" s="6">
         <v>1</v>
@@ -1762,14 +1765,16 @@
       <c r="AA11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="7">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AB11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="9"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
@@ -2875,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98482179-5758-4672-AADB-0AB0285AA3CF}">
-  <dimension ref="E4:J7"/>
+  <dimension ref="E4:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2933,6 +2938,28 @@
         <v>137</v>
       </c>
     </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15">
+        <f>60*60/E15</f>
+        <v>1028.5714285714287</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f>E6/1500*H15</f>
+        <v>18514.285714285717</v>
+      </c>
+      <c r="I16">
+        <f>H16*24</f>
+        <v>444342.85714285722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095390C-FCAA-4935-AB6B-CAD3E60AEE4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7338CDD-8DE3-4800-967F-6BD49838663E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW22" sqref="AW22"/>
+      <selection activeCell="AR22" sqref="AR22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,22 +1853,22 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AO12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="10" t="s">
+      <c r="AO12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AQ12" s="10" t="s">
+      <c r="AQ12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AR12" s="7">
-        <v>2</v>
-      </c>
-      <c r="AS12" s="7" t="s">
+      <c r="AR12" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AT12" s="7" t="s">
+      <c r="AT12" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AU12" s="5"/>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7338CDD-8DE3-4800-967F-6BD49838663E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB143C-77A2-4598-9A13-E7B394BAC0DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -1275,7 +1275,7 @@
       <c r="AT6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AU6" s="8">
+      <c r="AU6" s="15">
         <v>1</v>
       </c>
       <c r="AV6" s="8" t="s">
@@ -1665,7 +1665,7 @@
       <c r="Y10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="8">
+      <c r="Z10" s="15">
         <v>1</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -1784,13 +1784,13 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
-      <c r="AO11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="10" t="s">
+      <c r="AO11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AQ11" s="10" t="s">
+      <c r="AQ11" s="8" t="s">
         <v>61</v>
       </c>
       <c r="AR11" s="10">

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB143C-77A2-4598-9A13-E7B394BAC0DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA3C242-C669-43C3-B274-AB54CEF09EC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
   <si>
     <t>O</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t>ticks per hour</t>
+  </si>
+  <si>
+    <t>2 lvl snapshot</t>
+  </si>
+  <si>
+    <t>M06</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +542,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -632,6 +644,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -954,7 +968,7 @@
   <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+      <selection activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,13 +1128,13 @@
       <c r="AB5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AC5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AE5" s="15" t="s">
         <v>61</v>
       </c>
       <c r="AF5" s="9">
@@ -1132,15 +1146,13 @@
       <c r="AH5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AI5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="19"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
@@ -1153,29 +1165,29 @@
       <c r="AQ5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="7" t="s">
+      <c r="AR5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="7" t="s">
+      <c r="AT5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AU5" s="7">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="8" t="s">
+      <c r="AU5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1220,13 +1232,13 @@
       <c r="Y6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="8" t="s">
+      <c r="Z6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="15" t="s">
         <v>62</v>
       </c>
       <c r="AC6" s="9">
@@ -1278,10 +1290,10 @@
       <c r="AU6" s="15">
         <v>1</v>
       </c>
-      <c r="AV6" s="8" t="s">
+      <c r="AV6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AW6" s="8" t="s">
+      <c r="AW6" s="15" t="s">
         <v>74</v>
       </c>
       <c r="AX6" s="9">
@@ -1353,13 +1365,13 @@
       <c r="AE7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AF7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AH7" s="8" t="s">
+      <c r="AH7" s="15" t="s">
         <v>61</v>
       </c>
       <c r="AI7" s="9">
@@ -1377,13 +1389,13 @@
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
-      <c r="AR7" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="7" t="s">
+      <c r="AR7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AT7" s="7" t="s">
+      <c r="AT7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AU7" s="9">
@@ -1395,13 +1407,13 @@
       <c r="AW7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AX7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="8" t="s">
+      <c r="AX7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AZ7" s="8" t="s">
+      <c r="AZ7" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1450,10 +1462,10 @@
       <c r="Z8" s="15">
         <v>1</v>
       </c>
-      <c r="AA8" s="8" t="s">
+      <c r="AA8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AB8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="AC8" s="9">
@@ -1468,10 +1480,10 @@
       <c r="AF8" s="15">
         <v>1</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AH8" s="15" t="s">
         <v>66</v>
       </c>
       <c r="AI8" s="10">
@@ -1495,22 +1507,22 @@
       <c r="AQ8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="10" t="s">
+      <c r="AR8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="8" t="s">
+      <c r="AU8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AW8" s="8" t="s">
+      <c r="AW8" s="15" t="s">
         <v>61</v>
       </c>
       <c r="AX8" s="9">
@@ -1600,13 +1612,13 @@
       <c r="AQ9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR9" s="7">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT9" s="7" t="s">
+      <c r="AR9" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AU9" s="10">
@@ -1668,19 +1680,19 @@
       <c r="Z10" s="15">
         <v>1</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="8" t="s">
+      <c r="AA10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="8" t="s">
+      <c r="AC10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="8" t="s">
+      <c r="AE10" s="15" t="s">
         <v>62</v>
       </c>
       <c r="AF10" s="5"/>
@@ -1718,7 +1730,7 @@
       <c r="AZ10" s="5"/>
     </row>
     <row r="11" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+      <c r="D11" s="20" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="2">
@@ -1787,19 +1799,19 @@
       <c r="AO11" s="15">
         <v>1</v>
       </c>
-      <c r="AP11" s="8" t="s">
+      <c r="AP11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AQ11" s="8" t="s">
+      <c r="AQ11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AR11" s="10">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="10" t="s">
+      <c r="AR11" s="15">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AT11" s="10" t="s">
+      <c r="AT11" s="15" t="s">
         <v>62</v>
       </c>
       <c r="AU11" s="5"/>
@@ -1853,13 +1865,13 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AO12" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="8" t="s">
+      <c r="AO12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AQ12" s="8" t="s">
+      <c r="AQ12" s="15" t="s">
         <v>61</v>
       </c>
       <c r="AR12" s="9">
@@ -1922,22 +1934,22 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="10" t="s">
+      <c r="AO13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AQ13" s="10" t="s">
+      <c r="AQ13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AR13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="10" t="s">
+      <c r="AR13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AT13" s="10" t="s">
+      <c r="AT13" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AU13" s="5"/>
@@ -2028,7 +2040,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>89</v>
       </c>
@@ -2057,7 +2069,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>90</v>
       </c>
@@ -2079,7 +2091,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>123</v>
       </c>
@@ -2104,8 +2116,12 @@
       <c r="AJ19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="4:36" x14ac:dyDescent="0.25">
+      <c r="AM19" s="20"/>
+      <c r="AN19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>125</v>
       </c>
@@ -2127,7 +2143,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>126</v>
       </c>
@@ -2149,7 +2165,7 @@
       </c>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -2175,7 +2191,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>129</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>130</v>
       </c>
@@ -2227,7 +2243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>131</v>
       </c>
@@ -2253,7 +2269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>132</v>
       </c>
@@ -2275,7 +2291,7 @@
       </c>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:40" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
@@ -2296,7 +2312,7 @@
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:40" x14ac:dyDescent="0.25">
       <c r="G28" s="1">
         <f t="shared" ref="G28:L28" si="0">SUM(G5:G27)</f>
         <v>7</v>
@@ -2326,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:40" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>34</v>
       </c>
@@ -2352,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:40" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>35</v>
       </c>
@@ -2880,13 +2896,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98482179-5758-4672-AADB-0AB0285AA3CF}">
-  <dimension ref="E4:J16"/>
+  <dimension ref="E4:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
@@ -2960,6 +2979,12 @@
         <v>444342.85714285722</v>
       </c>
     </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f>1263000/0.012</f>
+        <v>105250000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA3C242-C669-43C3-B274-AB54CEF09EC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD17DAF-3B95-4E83-8A14-6F834A055404}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
-    <sheet name="lab" sheetId="2" r:id="rId2"/>
-    <sheet name="buttle group" sheetId="3" r:id="rId3"/>
-    <sheet name="balance upgrader" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
+    <sheet name="lab" sheetId="2" r:id="rId3"/>
+    <sheet name="buttle group" sheetId="3" r:id="rId4"/>
+    <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>O</t>
   </si>
@@ -459,12 +460,18 @@
   </si>
   <si>
     <t>M06</t>
+  </si>
+  <si>
+    <t>M00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₴&quot;"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,7 +641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -646,6 +652,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -968,7 +975,7 @@
   <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR25" sqref="AR25"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,51 +1037,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="16" t="s">
+      <c r="Z4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="16" t="s">
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="16" t="s">
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="16" t="s">
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="16" t="s">
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="16" t="s">
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="16" t="s">
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="16" t="s">
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="17"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="16" t="s">
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="17"/>
-      <c r="AZ4" s="18"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="17"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1128,13 +1135,13 @@
       <c r="AB5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="15" t="s">
+      <c r="AC5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AE5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AF5" s="9">
@@ -1146,13 +1153,13 @@
       <c r="AH5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AI5" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AJ5" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="19"/>
+      <c r="AJ5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="18"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
@@ -1181,13 +1188,13 @@
         <v>2</v>
       </c>
       <c r="AW5" s="9"/>
-      <c r="AX5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="15" t="s">
+      <c r="AX5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1232,13 +1239,13 @@
       <c r="Y6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="15" t="s">
+      <c r="Z6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AC6" s="9">
@@ -1260,10 +1267,10 @@
       <c r="AI6" s="6">
         <v>1</v>
       </c>
-      <c r="AJ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="8" t="s">
+      <c r="AJ6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AL6" s="5"/>
@@ -1287,13 +1294,13 @@
       <c r="AT6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AU6" s="15">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="15" t="s">
+      <c r="AU6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AW6" s="15" t="s">
+      <c r="AW6" s="6" t="s">
         <v>74</v>
       </c>
       <c r="AX6" s="9">
@@ -1365,24 +1372,22 @@
       <c r="AE7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="15" t="s">
+      <c r="AF7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AH7" s="15" t="s">
+      <c r="AH7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI7" s="9">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AI7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AK7" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="AK7" s="18"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
@@ -1407,13 +1412,13 @@
       <c r="AW7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AX7" s="15">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="15" t="s">
+      <c r="AX7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AZ7" s="15" t="s">
+      <c r="AZ7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1459,13 +1464,13 @@
       <c r="Y8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="15" t="s">
+      <c r="Z8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AC8" s="9">
@@ -1477,13 +1482,13 @@
       <c r="AE8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AF8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="15" t="s">
+      <c r="AF8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AH8" s="6" t="s">
         <v>66</v>
       </c>
       <c r="AI8" s="10">
@@ -1507,22 +1512,22 @@
       <c r="AQ8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="15" t="s">
+      <c r="AR8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AU8" s="15">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="15" t="s">
+      <c r="AU8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AW8" s="15" t="s">
+      <c r="AW8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AX8" s="9">
@@ -1677,22 +1682,22 @@
       <c r="Y10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Z10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="15" t="s">
+      <c r="Z10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AC10" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="15" t="s">
+      <c r="AC10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AF10" s="5"/>
@@ -1730,7 +1735,7 @@
       <c r="AZ10" s="5"/>
     </row>
     <row r="11" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="2">
@@ -1796,22 +1801,22 @@
       <c r="AL11" s="5"/>
       <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
-      <c r="AO11" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="15" t="s">
+      <c r="AO11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ11" s="15" t="s">
+      <c r="AQ11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AR11" s="15">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="15" t="s">
+      <c r="AR11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT11" s="15" t="s">
+      <c r="AT11" s="6" t="s">
         <v>62</v>
       </c>
       <c r="AU11" s="5"/>
@@ -1865,13 +1870,13 @@
       <c r="AL12" s="5"/>
       <c r="AM12" s="5"/>
       <c r="AN12" s="5"/>
-      <c r="AO12" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="15" t="s">
+      <c r="AO12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AQ12" s="15" t="s">
+      <c r="AQ12" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AR12" s="9">
@@ -2040,7 +2045,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>89</v>
       </c>
@@ -2069,7 +2074,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>90</v>
       </c>
@@ -2090,8 +2095,16 @@
       <c r="M18" s="3"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+    </row>
+    <row r="19" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>123</v>
       </c>
@@ -2112,16 +2125,20 @@
       <c r="M19" s="2"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" t="s">
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AM19" s="20"/>
-      <c r="AN19" t="s">
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+    </row>
+    <row r="20" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>125</v>
       </c>
@@ -2142,8 +2159,16 @@
       </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+    </row>
+    <row r="21" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>126</v>
       </c>
@@ -2164,8 +2189,16 @@
         <v>127</v>
       </c>
       <c r="O21" s="14"/>
-    </row>
-    <row r="22" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+    </row>
+    <row r="22" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>128</v>
       </c>
@@ -2187,11 +2220,17 @@
       </c>
       <c r="O22" s="14"/>
       <c r="AI22" s="9"/>
-      <c r="AJ22" t="s">
+      <c r="AJ22" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+    </row>
+    <row r="23" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>129</v>
       </c>
@@ -2213,11 +2252,17 @@
       </c>
       <c r="O23" s="14"/>
       <c r="AI23" s="8"/>
-      <c r="AJ23" t="s">
+      <c r="AJ23" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+    </row>
+    <row r="24" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>130</v>
       </c>
@@ -2239,11 +2284,17 @@
       </c>
       <c r="O24" s="14"/>
       <c r="AI24" s="7"/>
-      <c r="AJ24" t="s">
+      <c r="AJ24" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+    </row>
+    <row r="25" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>131</v>
       </c>
@@ -2265,11 +2316,17 @@
       </c>
       <c r="O25" s="14"/>
       <c r="AI25" s="10"/>
-      <c r="AJ25" t="s">
+      <c r="AJ25" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+    </row>
+    <row r="26" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>132</v>
       </c>
@@ -2290,8 +2347,16 @@
         <v>127</v>
       </c>
       <c r="O26" s="14"/>
-    </row>
-    <row r="27" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+    </row>
+    <row r="27" spans="4:42" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
         <v>55</v>
       </c>
@@ -2311,8 +2376,16 @@
       <c r="M27" s="2"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-    </row>
-    <row r="28" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+    </row>
+    <row r="28" spans="4:42" x14ac:dyDescent="0.25">
       <c r="G28" s="1">
         <f t="shared" ref="G28:L28" si="0">SUM(G5:G27)</f>
         <v>7</v>
@@ -2342,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:42" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>34</v>
       </c>
@@ -2368,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:42" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>35</v>
       </c>
@@ -2420,6 +2493,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45876F5E-1FAC-4475-AFDB-AB0B2C977DEC}">
+  <dimension ref="N10:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f>15*4*1100</f>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="11" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>1262000</v>
+      </c>
+      <c r="O11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="P11" s="20">
+        <f>N11/O11</f>
+        <v>105166666.66666667</v>
+      </c>
+      <c r="S11">
+        <f>S10*24</f>
+        <v>1584000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
   <dimension ref="B6:O13"/>
   <sheetViews>
@@ -2581,7 +2695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D42C2D-809D-49DE-828C-EB53612AEB33}">
   <dimension ref="F4:Z23"/>
   <sheetViews>
@@ -2894,7 +3008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98482179-5758-4672-AADB-0AB0285AA3CF}">
   <dimension ref="E4:M25"/>
   <sheetViews>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD17DAF-3B95-4E83-8A14-6F834A055404}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{773187BC-F382-4CD7-8012-92FB22C755D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -641,6 +642,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,9 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -975,7 +976,7 @@
   <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,51 +1038,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="15" t="s">
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="15" t="s">
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="15" t="s">
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="17"/>
-      <c r="AO4" s="15" t="s">
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="16"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="15" t="s">
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="16"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="15" t="s">
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="20"/>
+      <c r="AU4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="17"/>
-      <c r="AX4" s="15" t="s">
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="20"/>
+      <c r="AX4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="17"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="20"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -1153,13 +1154,13 @@
       <c r="AH5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" s="18" t="s">
+      <c r="AI5" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="AJ5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="18"/>
+      <c r="AJ5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="15"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
@@ -1381,13 +1382,13 @@
       <c r="AH7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AI7" s="18" t="s">
+      <c r="AI7" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="AJ7" s="18" t="s">
+      <c r="AJ7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AK7" s="18"/>
+      <c r="AK7" s="15"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
@@ -1735,7 +1736,7 @@
       <c r="AZ10" s="5"/>
     </row>
     <row r="11" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E11" s="2">
@@ -2131,7 +2132,7 @@
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
-      <c r="AM19" s="18"/>
+      <c r="AM19" s="15"/>
       <c r="AN19" s="1" t="s">
         <v>140</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="O11">
         <v>1.2E-2</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="17">
         <f>N11/O11</f>
         <v>105166666.66666667</v>
       </c>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773187BC-F382-4CD7-8012-92FB22C755D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FE35B-ED07-439E-9170-D6465E13F7C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="lab" sheetId="2" r:id="rId3"/>
     <sheet name="buttle group" sheetId="3" r:id="rId4"/>
     <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
   <si>
     <t>O</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>M00</t>
+  </si>
+  <si>
+    <t>M04</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
   <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1088,7 @@
       <c r="AZ4" s="20"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+      <c r="D5" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="2">
@@ -1128,7 +1131,7 @@
         <v>46</v>
       </c>
       <c r="Z5" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>0</v>
@@ -1145,13 +1148,13 @@
       <c r="AE5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AF5" s="9">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="9" t="s">
+      <c r="AF5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="15" t="s">
         <v>63</v>
       </c>
       <c r="AI5" s="15" t="s">
@@ -1164,27 +1167,23 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
-      <c r="AO5" s="10">
+      <c r="AO5" s="8">
         <v>2</v>
       </c>
-      <c r="AP5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="10" t="s">
+      <c r="AP5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AR5" s="9">
-        <v>1</v>
-      </c>
+      <c r="AR5" s="9"/>
       <c r="AS5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AU5" s="9">
-        <v>1</v>
-      </c>
+      <c r="AU5" s="9"/>
       <c r="AV5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>62</v>
       </c>
       <c r="AC6" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD6" s="9" t="s">
         <v>2</v>
@@ -1258,9 +1257,7 @@
       <c r="AE6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AF6" s="9">
-        <v>2</v>
-      </c>
+      <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="s">
         <v>0</v>
       </c>
@@ -1286,13 +1283,13 @@
       <c r="AQ6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="10" t="s">
+      <c r="AR6" s="8">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="AT6" s="10" t="s">
+      <c r="AT6" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AU6" s="6">
@@ -1304,9 +1301,7 @@
       <c r="AW6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AX6" s="9">
-        <v>2</v>
-      </c>
+      <c r="AX6" s="9"/>
       <c r="AY6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1355,18 +1350,14 @@
       <c r="Y7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="9">
-        <v>2</v>
-      </c>
+      <c r="Z7" s="9"/>
       <c r="AA7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="9">
-        <v>2</v>
-      </c>
+      <c r="AC7" s="9"/>
       <c r="AD7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1395,18 +1386,14 @@
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
-      <c r="AR7" s="9">
-        <v>1</v>
-      </c>
+      <c r="AR7" s="9"/>
       <c r="AS7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AU7" s="9">
-        <v>2</v>
-      </c>
+      <c r="AU7" s="9"/>
       <c r="AV7" s="9" t="s">
         <v>0</v>
       </c>
@@ -1474,9 +1461,7 @@
       <c r="AB8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AC8" s="9">
-        <v>1</v>
-      </c>
+      <c r="AC8" s="9"/>
       <c r="AD8" s="9" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1517,7 @@
         <v>61</v>
       </c>
       <c r="AX8" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY8" s="9" t="s">
         <v>1</v>
@@ -1542,7 +1527,7 @@
       </c>
     </row>
     <row r="9" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="D9" s="15" t="s">
         <v>92</v>
       </c>
       <c r="E9" s="2">
@@ -1582,18 +1567,14 @@
       <c r="Y9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="9">
-        <v>2</v>
-      </c>
+      <c r="Z9" s="9"/>
       <c r="AA9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="9">
-        <v>2</v>
-      </c>
+      <c r="AC9" s="9"/>
       <c r="AD9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1618,31 +1599,29 @@
       <c r="AQ9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR9" s="9">
-        <v>1</v>
-      </c>
+      <c r="AR9" s="9"/>
       <c r="AS9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AU9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="10" t="s">
+      <c r="AU9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AW9" s="10" t="s">
+      <c r="AW9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AX9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="10" t="s">
+      <c r="AX9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AZ9" s="10" t="s">
+      <c r="AZ9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1719,9 +1698,7 @@
       <c r="AQ10" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AR10" s="9">
-        <v>2</v>
-      </c>
+      <c r="AR10" s="9"/>
       <c r="AS10" s="9" t="s">
         <v>0</v>
       </c>
@@ -1777,18 +1754,14 @@
       <c r="Y11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="9">
-        <v>2</v>
-      </c>
+      <c r="Z11" s="9"/>
       <c r="AA11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AC11" s="9">
-        <v>1</v>
-      </c>
+      <c r="AC11" s="9"/>
       <c r="AD11" s="9" t="s">
         <v>3</v>
       </c>
@@ -1880,9 +1853,7 @@
       <c r="AQ12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AR12" s="9">
-        <v>2</v>
-      </c>
+      <c r="AR12" s="9"/>
       <c r="AS12" s="9" t="s">
         <v>4</v>
       </c>
@@ -1940,22 +1911,22 @@
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
-      <c r="AO13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="8" t="s">
+      <c r="AO13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AQ13" s="8" t="s">
+      <c r="AQ13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AR13" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="8" t="s">
+      <c r="AR13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AT13" s="8" t="s">
+      <c r="AT13" s="6" t="s">
         <v>66</v>
       </c>
       <c r="AU13" s="5"/>
@@ -3103,4 +3074,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90AA18-E4B9-401D-951F-C96D9E790EE7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FE35B-ED07-439E-9170-D6465E13F7C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AE38F-4B58-430F-9567-1D6809B33845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="139">
   <si>
     <t>O</t>
   </si>
@@ -226,21 +226,9 @@
     <t>up</t>
   </si>
   <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>h0</t>
-  </si>
-  <si>
     <t>&lt;</t>
   </si>
   <si>
-    <t>h3</t>
-  </si>
-  <si>
     <t>E57N35</t>
   </si>
   <si>
@@ -256,12 +244,6 @@
     <t>E58N39</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
     <t>E58N37</t>
   </si>
   <si>
@@ -467,6 +449,9 @@
   </si>
   <si>
     <t>M04</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -979,7 +964,7 @@
   <dimension ref="D3:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1074,7 @@
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1136,9 +1121,7 @@
       <c r="AA5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AB5" s="9"/>
       <c r="AC5" s="6">
         <v>1</v>
       </c>
@@ -1149,16 +1132,14 @@
         <v>61</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AH5" s="15" t="s">
-        <v>63</v>
-      </c>
+      <c r="AH5" s="15"/>
       <c r="AI5" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AJ5" s="15" t="s">
         <v>2</v>
@@ -1180,9 +1161,7 @@
       <c r="AS5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="AT5" s="9"/>
       <c r="AU5" s="9"/>
       <c r="AV5" s="9" t="s">
         <v>2</v>
@@ -1195,12 +1174,12 @@
         <v>1</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1254,9 +1233,7 @@
       <c r="AD6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AE6" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="s">
         <v>0</v>
@@ -1299,19 +1276,17 @@
         <v>0</v>
       </c>
       <c r="AW6" s="6" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AX6" s="9"/>
       <c r="AY6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AZ6" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="AZ6" s="9"/>
     </row>
     <row r="7" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1354,16 +1329,12 @@
       <c r="AA7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="AE7" s="9"/>
       <c r="AF7" s="6">
         <v>1</v>
       </c>
@@ -1374,7 +1345,7 @@
         <v>61</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>0</v>
@@ -1390,16 +1361,12 @@
       <c r="AS7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AT7" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="AT7" s="9"/>
       <c r="AU7" s="9"/>
       <c r="AV7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AW7" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AW7" s="9"/>
       <c r="AX7" s="6">
         <v>1</v>
       </c>
@@ -1412,7 +1379,7 @@
     </row>
     <row r="8" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3">
         <v>3</v>
@@ -1465,9 +1432,7 @@
       <c r="AD8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AE8" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="AE8" s="9"/>
       <c r="AF8" s="6">
         <v>1</v>
       </c>
@@ -1475,7 +1440,7 @@
         <v>4</v>
       </c>
       <c r="AH8" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AI8" s="10">
         <v>3</v>
@@ -1522,13 +1487,11 @@
       <c r="AY8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AZ8" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AZ8" s="9"/>
     </row>
     <row r="9" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
@@ -1571,16 +1534,12 @@
       <c r="AA9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE9" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AE9" s="9"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
@@ -1603,9 +1562,7 @@
       <c r="AS9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AT9" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="AT9" s="9"/>
       <c r="AU9" s="6">
         <v>1</v>
       </c>
@@ -1613,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="AW9" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AX9" s="6">
         <v>1</v>
@@ -1622,12 +1579,12 @@
         <v>5</v>
       </c>
       <c r="AZ9" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -1669,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AC10" s="6">
         <v>1</v>
@@ -1702,9 +1659,7 @@
       <c r="AS10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AT10" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="AT10" s="9"/>
       <c r="AU10" s="5"/>
       <c r="AV10" s="5"/>
       <c r="AW10" s="5"/>
@@ -1714,7 +1669,7 @@
     </row>
     <row r="11" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D11" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2">
         <v>6</v>
@@ -1758,9 +1713,7 @@
       <c r="AA11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AB11" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
       <c r="AD11" s="9" t="s">
         <v>3</v>
@@ -1802,7 +1755,7 @@
     </row>
     <row r="12" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E12" s="3">
         <v>7</v>
@@ -1857,9 +1810,7 @@
       <c r="AS12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AT12" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="AT12" s="9"/>
       <c r="AU12" s="5"/>
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
@@ -1869,7 +1820,7 @@
     </row>
     <row r="13" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2">
         <v>8</v>
@@ -1927,7 +1878,7 @@
         <v>5</v>
       </c>
       <c r="AT13" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
@@ -1938,7 +1889,7 @@
     </row>
     <row r="14" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E14" s="3">
         <v>9</v>
@@ -1965,7 +1916,7 @@
     </row>
     <row r="15" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
@@ -1992,7 +1943,7 @@
     </row>
     <row r="16" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3">
         <v>11</v>
@@ -2019,7 +1970,7 @@
     </row>
     <row r="17" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2">
         <v>12</v>
@@ -2048,13 +1999,13 @@
     </row>
     <row r="18" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E18" s="3">
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2078,13 +2029,13 @@
     </row>
     <row r="19" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -2099,20 +2050,20 @@
       <c r="O19" s="14"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="15"/>
       <c r="AN19" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
     <row r="20" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E20" s="2">
         <v>15</v>
@@ -2142,11 +2093,11 @@
     </row>
     <row r="21" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2158,7 +2109,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O21" s="14"/>
       <c r="AI21" s="1"/>
@@ -2172,11 +2123,11 @@
     </row>
     <row r="22" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
@@ -2188,7 +2139,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O22" s="14"/>
       <c r="AI22" s="9"/>
@@ -2204,11 +2155,11 @@
     </row>
     <row r="23" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -2220,7 +2171,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O23" s="14"/>
       <c r="AI23" s="8"/>
@@ -2236,11 +2187,11 @@
     </row>
     <row r="24" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
@@ -2252,7 +2203,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O24" s="14"/>
       <c r="AI24" s="7"/>
@@ -2268,11 +2219,11 @@
     </row>
     <row r="25" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -2284,7 +2235,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O25" s="14"/>
       <c r="AI25" s="10"/>
@@ -2300,11 +2251,11 @@
     </row>
     <row r="26" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -2316,7 +2267,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O26" s="14"/>
       <c r="AI26" s="1"/>
@@ -2520,7 +2471,7 @@
   <sheetData>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2541,7 +2492,7 @@
         <v>6</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -2561,7 +2512,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2585,7 +2536,7 @@
       </c>
       <c r="L8" s="11"/>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2628,7 +2579,7 @@
       </c>
       <c r="L10" s="11"/>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -2659,7 +2610,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2684,35 +2635,35 @@
   <sheetData>
     <row r="4" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>23</v>
@@ -2818,28 +2769,28 @@
     </row>
     <row r="10" spans="6:26" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M10">
         <f>7*P5+I8*Q5</f>
         <v>100</v>
       </c>
       <c r="S10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="U10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="6:26" x14ac:dyDescent="0.25">
       <c r="S11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -2864,7 +2815,7 @@
     </row>
     <row r="12" spans="6:26" x14ac:dyDescent="0.25">
       <c r="S12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="T12">
         <v>4</v>
@@ -2880,7 +2831,7 @@
     </row>
     <row r="13" spans="6:26" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P13">
         <f>M5/U13</f>
@@ -2900,7 +2851,7 @@
     </row>
     <row r="14" spans="6:26" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P14">
         <f>M6/V13</f>
@@ -2912,7 +2863,7 @@
     </row>
     <row r="16" spans="6:26" x14ac:dyDescent="0.25">
       <c r="V16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="W16">
         <f>(M10-Z11)*Q13</f>
@@ -2924,54 +2875,54 @@
         <v>23</v>
       </c>
       <c r="T17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="18:25" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="W21">
         <v>710</v>
       </c>
       <c r="Y21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="S22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="W22">
         <v>920</v>
       </c>
       <c r="Y22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="S23" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W23">
         <v>780</v>
       </c>
       <c r="Y23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2995,12 +2946,12 @@
   <sheetData>
     <row r="4" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="5:10" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.25">
@@ -3016,13 +2967,13 @@
         <v>15000</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I6">
         <v>2050</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="5:10" x14ac:dyDescent="0.25">
@@ -3034,13 +2985,13 @@
         <v>1000</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>1500</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="5:10" x14ac:dyDescent="0.25">
@@ -3048,7 +2999,7 @@
         <v>3.5</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H15">
         <f>60*60/E15</f>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935AE38F-4B58-430F-9567-1D6809B33845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34260851-3A41-4D09-B5BC-2A748025AC9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
   <si>
     <t>O</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -963,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB20" sqref="AB20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2458,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
-  <dimension ref="B6:O13"/>
+  <dimension ref="B5:AB13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,7 +2475,12 @@
     <col min="2" max="18" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -2494,8 +2505,14 @@
       <c r="O6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -2514,8 +2531,14 @@
       <c r="O7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -2538,8 +2561,14 @@
       <c r="O8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -2561,8 +2590,14 @@
         <v>4</v>
       </c>
       <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>4</v>
       </c>
@@ -2581,8 +2616,14 @@
       <c r="O10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
@@ -2596,8 +2637,14 @@
       <c r="J11" s="12"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>6</v>
       </c>
@@ -2607,10 +2654,25 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>78</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA13">
+        <v>0.01</v>
+      </c>
+      <c r="AB13">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34260851-3A41-4D09-B5BC-2A748025AC9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E213C6-D7AF-4E2D-B1B4-48E55B784D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
   <si>
     <t>O</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M01</t>
   </si>
 </sst>
 </file>
@@ -969,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,13 +1130,13 @@
       <c r="Y5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="9">
-        <v>6</v>
-      </c>
-      <c r="AA5" s="9" t="s">
+      <c r="Z5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AB5" s="9"/>
+      <c r="AB5" s="15"/>
       <c r="AC5" s="6">
         <v>1</v>
       </c>
@@ -1233,13 +1242,13 @@
       <c r="AB6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" s="9">
-        <v>6</v>
-      </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AC6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE6" s="9"/>
+      <c r="AE6" s="15"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="9" t="s">
         <v>0</v>
@@ -1487,13 +1496,13 @@
       <c r="AW8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AX8" s="9">
-        <v>6</v>
-      </c>
-      <c r="AY8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="9"/>
+      <c r="AX8" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="15"/>
     </row>
     <row r="9" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D9" s="15" t="s">
@@ -1760,7 +1769,7 @@
       <c r="AZ11" s="5"/>
     </row>
     <row r="12" spans="4:52" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="3">
@@ -2466,7 +2475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
   <dimension ref="B5:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E213C6-D7AF-4E2D-B1B4-48E55B784D9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BABB76-C3D4-4CC6-8E67-EE66D17C639B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="lab" sheetId="2" r:id="rId3"/>
     <sheet name="buttle group" sheetId="3" r:id="rId4"/>
     <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
-    <sheet name="Лист2" sheetId="6" r:id="rId6"/>
+    <sheet name="Program object" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
   <si>
     <t>O</t>
   </si>
@@ -467,6 +467,27 @@
   </si>
   <si>
     <t>M01</t>
+  </si>
+  <si>
+    <t>Rampart calculate</t>
+  </si>
+  <si>
+    <t>tick</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>builder</t>
+  </si>
+  <si>
+    <t>energy per 300 tick</t>
   </si>
 </sst>
 </file>
@@ -978,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
@@ -3100,14 +3121,188 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90AA18-E4B9-401D-951F-C96D9E790EE7}">
-  <dimension ref="A1"/>
+  <dimension ref="E5:X20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6">
+        <v>-300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8">
+        <v>-10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8">
+        <v>200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>300/F6*H6/H9*F9</f>
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+      <c r="J13">
+        <f>I13*F13</f>
+        <v>351</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>6000</f>
+        <v>6000</v>
+      </c>
+      <c r="X14">
+        <f>SUM(X10:X13)</f>
+        <v>0.23199999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="X16">
+        <f>X15-X14</f>
+        <v>1.1679999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>5942</v>
+      </c>
+      <c r="P17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f>P17-N17</f>
+        <v>4058</v>
+      </c>
+      <c r="Q18">
+        <f>P18*0.012</f>
+        <v>48.695999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <f>Q18/7000</f>
+        <v>6.9565714285714283E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BABB76-C3D4-4CC6-8E67-EE66D17C639B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B71D1-4B8B-4D33-91E2-DF9DC4EE5978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="buttle group" sheetId="3" r:id="rId4"/>
     <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
     <sheet name="Program object" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
   <si>
     <t>O</t>
   </si>
@@ -488,6 +489,36 @@
   </si>
   <si>
     <t>energy per 300 tick</t>
+  </si>
+  <si>
+    <t>r attack area</t>
+  </si>
+  <si>
+    <t>[TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK,ATTACK]</t>
+  </si>
+  <si>
+    <t>Anti tower</t>
+  </si>
+  <si>
+    <t>TOUGH*12,MOVE*17,ATTACK*21</t>
+  </si>
+  <si>
+    <t>[TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,TOUGH,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,MOVE,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL,HEAL]</t>
+  </si>
+  <si>
+    <t>TOUGH*12,MOVE*17,HEAL*21</t>
+  </si>
+  <si>
+    <t>TOUGH</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>XGHO2</t>
+  </si>
+  <si>
+    <t>XLHO2</t>
   </si>
 </sst>
 </file>
@@ -2712,10 +2743,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D42C2D-809D-49DE-828C-EB53612AEB33}">
-  <dimension ref="F4:Z23"/>
+  <dimension ref="F4:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,6 +2791,9 @@
       <c r="R4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="S4" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F5" s="11">
@@ -2795,6 +2829,9 @@
       <c r="R5" s="11">
         <v>12</v>
       </c>
+      <c r="S5" s="11">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F6" s="11">
@@ -2826,12 +2863,15 @@
         <v>2</v>
       </c>
       <c r="P6" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="11">
         <v>0</v>
       </c>
       <c r="R6" s="11">
+        <v>4</v>
+      </c>
+      <c r="S6" s="11">
         <v>4</v>
       </c>
     </row>
@@ -2840,13 +2880,16 @@
         <v>3</v>
       </c>
       <c r="P7" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="11">
         <v>0</v>
       </c>
       <c r="R7" s="11">
         <v>4</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="6:26" x14ac:dyDescent="0.25">
@@ -2918,7 +2961,7 @@
       </c>
       <c r="V12">
         <f>T12*P7</f>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="6:26" x14ac:dyDescent="0.25">
@@ -2938,7 +2981,7 @@
       </c>
       <c r="V13">
         <f>SUM(V11:V12)</f>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="6:26" x14ac:dyDescent="0.25">
@@ -2947,7 +2990,7 @@
       </c>
       <c r="P14">
         <f>M6/V13</f>
-        <v>272.5</v>
+        <v>27.25</v>
       </c>
       <c r="Q14">
         <v>273</v>
@@ -2962,7 +3005,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:25" x14ac:dyDescent="0.25">
       <c r="S17" t="s">
         <v>23</v>
       </c>
@@ -2970,12 +3013,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:25" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:25" x14ac:dyDescent="0.25">
       <c r="R21" t="s">
         <v>108</v>
       </c>
@@ -2989,7 +3032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:25" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
         <v>110</v>
       </c>
@@ -3003,7 +3046,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:25" x14ac:dyDescent="0.25">
       <c r="R23" t="s">
         <v>111</v>
       </c>
@@ -3015,6 +3058,39 @@
       </c>
       <c r="Y23" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="L26">
+        <f>600*6</f>
+        <v>3600</v>
+      </c>
+      <c r="N26">
+        <f>L26*0.7</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="27" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f>L26/12</f>
+        <v>300</v>
+      </c>
+      <c r="N27">
+        <f>L26-N26</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="30" spans="10:25" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <f>N27/12</f>
+        <v>90</v>
+      </c>
+      <c r="O30">
+        <f>20*3*3</f>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3123,7 +3199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90AA18-E4B9-401D-951F-C96D9E790EE7}">
   <dimension ref="E5:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -3305,4 +3381,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A4D06-7154-4F17-8C52-71025DE52D9E}">
+  <dimension ref="E2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7">
+        <f>3*24</f>
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7">
+        <f>F7*30</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8">
+        <f>21*3</f>
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8">
+        <f>F8*30</f>
+        <v>1890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8B71D1-4B8B-4D33-91E2-DF9DC4EE5978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66787B00-D98E-4A2F-8B14-B7BB25858309}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
     <sheet name="Program object" sheetId="6" r:id="rId6"/>
     <sheet name="Лист2" sheetId="7" r:id="rId7"/>
+    <sheet name="market" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="162">
   <si>
     <t>O</t>
   </si>
@@ -519,6 +520,9 @@
   </si>
   <si>
     <t>XLHO2</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
@@ -3387,7 +3391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A4D06-7154-4F17-8C52-71025DE52D9E}">
   <dimension ref="E2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -3455,4 +3459,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908B650-795C-4ADB-968F-08990C0BAC14}">
+  <dimension ref="E2:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>0.5*500/0.01</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>F13/1000*300</f>
+        <v>7500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66787B00-D98E-4A2F-8B14-B7BB25858309}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744544CF-62AD-4657-8459-260BF42A4665}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
@@ -3463,20 +3463,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908B650-795C-4ADB-968F-08990C0BAC14}">
-  <dimension ref="E2:G14"/>
+  <dimension ref="E2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -3553,16 +3553,22 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F13">
         <f>0.5*500/0.01</f>
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F14">
         <f>F13/1000*300</f>
         <v>7500</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <f>60*200+900</f>
+        <v>12900</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744544CF-62AD-4657-8459-260BF42A4665}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD109E9-1D75-414C-B543-609CA36D9737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
   <si>
     <t>O</t>
   </si>
@@ -523,6 +523,15 @@
   </si>
   <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>E58N31</t>
+  </si>
+  <si>
+    <t>XGH2O</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
-  <dimension ref="D3:AZ31"/>
+  <dimension ref="D3:AZ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,21 +2360,20 @@
       <c r="AP26" s="1"/>
     </row>
     <row r="27" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
+      <c r="D27" t="s">
+        <v>162</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="14"/>
@@ -2380,92 +2388,159 @@
       <c r="AP27" s="1"/>
     </row>
     <row r="28" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="G28" s="1">
-        <f t="shared" ref="G28:L28" si="0">SUM(G5:G27)</f>
+      <c r="E28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+    </row>
+    <row r="29" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <f>SUM(G5:G28)</f>
         <v>7</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:M29" si="0">SUM(H5:H28)</f>
+        <v>5</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I28" s="1">
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M28" s="1">
-        <f>SUM(M5:M27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+      <c r="O31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="1">
-        <v>7</v>
-      </c>
-      <c r="H30" s="1">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="G32" s="1">
+        <f>$F$31*G30</f>
         <v>3</v>
       </c>
-      <c r="J30" s="1">
+      <c r="H32" s="1">
+        <f t="shared" ref="H32:M32" si="1">$F$31*H30</f>
+        <v>6</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K30" s="1">
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <f>G32-G29</f>
+        <v>-4</v>
+      </c>
+      <c r="H33">
+        <f>H32-H29</f>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f>I32-I29</f>
+        <v>-1</v>
+      </c>
+      <c r="J33">
+        <f>J32-J29</f>
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <f>K32-K29</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>L32-L29</f>
+        <v>-2</v>
+      </c>
+      <c r="M33">
+        <f>M32-M29</f>
         <v>2</v>
-      </c>
-      <c r="L30" s="1">
-        <v>3</v>
-      </c>
-      <c r="M30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31">
-        <f>G30-G28</f>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ref="H31:M31" si="1">H30-H28</f>
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3465,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908B650-795C-4ADB-968F-08990C0BAC14}">
   <dimension ref="E2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD109E9-1D75-414C-B543-609CA36D9737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4879AD4-AFC1-4FE6-B690-B735DB45D377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
-    <sheet name="lab" sheetId="2" r:id="rId3"/>
-    <sheet name="buttle group" sheetId="3" r:id="rId4"/>
-    <sheet name="balance upgrader" sheetId="4" r:id="rId5"/>
-    <sheet name="Program object" sheetId="6" r:id="rId6"/>
-    <sheet name="Лист2" sheetId="7" r:id="rId7"/>
-    <sheet name="market" sheetId="8" r:id="rId8"/>
+    <sheet name="Лист3" sheetId="9" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
+    <sheet name="lab" sheetId="2" r:id="rId4"/>
+    <sheet name="buttle group" sheetId="3" r:id="rId5"/>
+    <sheet name="balance upgrader" sheetId="4" r:id="rId6"/>
+    <sheet name="Program object" sheetId="6" r:id="rId7"/>
+    <sheet name="Лист2" sheetId="7" r:id="rId8"/>
+    <sheet name="market" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="175">
   <si>
     <t>O</t>
   </si>
@@ -532,6 +533,36 @@
   </si>
   <si>
     <t>XGH2O</t>
+  </si>
+  <si>
+    <t>/cast Drain Soul(Rank 1)</t>
+  </si>
+  <si>
+    <t>/script CastPetAction(2)</t>
+  </si>
+  <si>
+    <t>САМОСТОЯТЕЛЬНЫЙ ПЕТ:</t>
+  </si>
+  <si>
+    <t>/script if GetUnitName("target")==nil then TargetNearestEnemy() end</t>
+  </si>
+  <si>
+    <t>/script CastPetAction(2);</t>
+  </si>
+  <si>
+    <t>/script PetAttack(target)</t>
+  </si>
+  <si>
+    <t>АТАКА ПЕТА+ КАСТ СПЕЛА:</t>
+  </si>
+  <si>
+    <t>/cast (*Put Spell Here*)</t>
+  </si>
+  <si>
+    <t>ПОХИЩЕНИЯ ДУШИ МАКРОС С УДАЛЕНИЕМ ИЗ СУМКИ ШАРДА: (20+)</t>
+  </si>
+  <si>
+    <t>/run local a=GetBagName(4); if a=="Core Felcloth Bag" or a=="Felcloth Bag" or a=="Soul Pouch" or a=="Box of Souls" or a=="Small Soul Pouch" then PickupContainerItem(4,GetContainerNumSlots(4)) DeleteCursorItem() else end</t>
   </si>
 </sst>
 </file>
@@ -541,7 +572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₴&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +595,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -692,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -722,6 +759,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1043,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
   <dimension ref="D3:AZ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -2515,31 +2553,31 @@
         <v>35</v>
       </c>
       <c r="G33">
-        <f>G32-G29</f>
+        <f t="shared" ref="G33:M33" si="2">G32-G29</f>
         <v>-4</v>
       </c>
       <c r="H33">
-        <f>H32-H29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I33">
-        <f>I32-I29</f>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="J33">
-        <f>J32-J29</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K33">
-        <f>K32-K29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>L32-L29</f>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="M33">
-        <f>M32-M29</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -2562,6 +2600,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAFC51-DB63-4146-9722-38792520926E}">
+  <dimension ref="I5:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45876F5E-1FAC-4475-AFDB-AB0B2C977DEC}">
   <dimension ref="N10:S11"/>
   <sheetViews>
@@ -2602,7 +2716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D97CD3-BA65-40A2-9A26-BFDCD3608E1D}">
   <dimension ref="B5:AB13"/>
   <sheetViews>
@@ -2820,7 +2934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D42C2D-809D-49DE-828C-EB53612AEB33}">
   <dimension ref="F4:Z30"/>
   <sheetViews>
@@ -3178,7 +3292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98482179-5758-4672-AADB-0AB0285AA3CF}">
   <dimension ref="E4:M25"/>
   <sheetViews>
@@ -3274,7 +3388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF90AA18-E4B9-401D-951F-C96D9E790EE7}">
   <dimension ref="E5:X20"/>
   <sheetViews>
@@ -3462,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0A4D06-7154-4F17-8C52-71025DE52D9E}">
   <dimension ref="E2:J8"/>
   <sheetViews>
@@ -3536,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D908B650-795C-4ADB-968F-08990C0BAC14}">
   <dimension ref="E2:N15"/>
   <sheetViews>

--- a/src/main/screeps.xlsx
+++ b/src/main/screeps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Screeps\screeps-kotlin-starter-master\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4879AD4-AFC1-4FE6-B690-B735DB45D377}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF6E44C-08BA-4220-9CD4-29136741D532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E64D4CD0-F693-495E-97B0-F1DF3284CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="plan expansion" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="185">
   <si>
     <t>O</t>
   </si>
@@ -563,6 +563,36 @@
   </si>
   <si>
     <t>/run local a=GetBagName(4); if a=="Core Felcloth Bag" or a=="Felcloth Bag" or a=="Soul Pouch" or a=="Box of Souls" or a=="Small Soul Pouch" then PickupContainerItem(4,GetContainerNumSlots(4)) DeleteCursorItem() else end</t>
+  </si>
+  <si>
+    <t>#showtooltip</t>
+  </si>
+  <si>
+    <t>/run PickupContainerItem(4,GetContainerNumSlots(4)) DeleteCursorItem()</t>
+  </si>
+  <si>
+    <t>/cast [@mouseover,exists]SPELLNAME;SPELLNAME</t>
+  </si>
+  <si>
+    <t>[@mouseover,exists]</t>
+  </si>
+  <si>
+    <t>/run c=CastSpellByName s="SPELLNAME" m="mouseover" if UnitExists(m) and UnitReaction(m,"player")&lt;5 then TargetUnit(m) c(s) TargetLastTarget() else c(s) end</t>
+  </si>
+  <si>
+    <t>/cqs</t>
+  </si>
+  <si>
+    <t>/focus [target=mouseover,harm,nounithasvehicleui,exists,nodead]</t>
+  </si>
+  <si>
+    <t>/cast [target=focus,harm,nounithasvehicleui,exists,nodead]Bind Elemental;</t>
+  </si>
+  <si>
+    <t>/script UIErrorsFrame:Clear()</t>
+  </si>
+  <si>
+    <t>M23</t>
   </si>
 </sst>
 </file>
@@ -572,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₴&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,6 +629,31 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -729,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -750,6 +805,11 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,7 +819,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1079,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF91D9F-DCEA-4E79-967A-CDC2E1F2774F}">
-  <dimension ref="D3:AZ33"/>
+  <dimension ref="D3:AZ34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,51 +1203,51 @@
         <v>6</v>
       </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="18" t="s">
+      <c r="Z4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="18" t="s">
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="18" t="s">
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="18" t="s">
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="18" t="s">
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="18" t="s">
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="18" t="s">
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="18" t="s">
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="25"/>
+      <c r="AU4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="18" t="s">
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="20"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="25"/>
     </row>
     <row r="5" spans="4:52" x14ac:dyDescent="0.25">
       <c r="D5" s="15" t="s">
@@ -2426,21 +2485,18 @@
       <c r="AP27" s="1"/>
     </row>
     <row r="28" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="E28" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>2</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="14"/>
@@ -2455,128 +2511,157 @@
       <c r="AP28" s="1"/>
     </row>
     <row r="29" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="G29" s="1">
-        <f>SUM(G5:G28)</f>
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+    </row>
+    <row r="30" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <f>SUM(G5:G29)</f>
         <v>7</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" ref="H29:M29" si="0">SUM(H5:H28)</f>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:M30" si="0">SUM(H5:H29)</f>
         <v>5</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I30" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J29" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K29" s="1">
+      <c r="J30" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L29" s="1">
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M30" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
+    <row r="31" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>2</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F31">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="4:42" x14ac:dyDescent="0.25">
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="1">
-        <f>$F$31*G30</f>
+      <c r="G33" s="1">
+        <f>$F$32*G31</f>
         <v>3</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" ref="H32:M32" si="1">$F$31*H30</f>
+      <c r="H33" s="1">
+        <f t="shared" ref="H33:M33" si="1">$F$32*H31</f>
         <v>6</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L33" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M33" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
         <v>35</v>
       </c>
-      <c r="G33">
-        <f t="shared" ref="G33:M33" si="2">G32-G29</f>
+      <c r="G34">
+        <f t="shared" ref="G34:M34" si="2">G33-G30</f>
         <v>-4</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="K33">
+      <c r="J34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L33">
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="M33">
+      <c r="M34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -2601,72 +2686,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAAFC51-DB63-4146-9722-38792520926E}">
-  <dimension ref="I5:I19"/>
+  <dimension ref="B5:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="18" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="18" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="18" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="15" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="21" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I17" s="18" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="21" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I18" s="18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="21" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I19" s="18" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I26" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I27" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I28" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I32" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="I34" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
